--- a/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P71_R-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>28724</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20312</v>
+        <v>19213</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40412</v>
+        <v>39938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1063237420671358</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07518510021938597</v>
+        <v>0.07111738598244648</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1495869121133023</v>
+        <v>0.1478329878555212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>38368</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28311</v>
+        <v>27373</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52429</v>
+        <v>52890</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1488305992506341</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1098196572061986</v>
+        <v>0.1061793666135016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2033712517229796</v>
+        <v>0.2051615137193481</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -786,19 +786,19 @@
         <v>67093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51308</v>
+        <v>53005</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82160</v>
+        <v>84583</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.127079531913843</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09718237500109138</v>
+        <v>0.1003957008912563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.155618637029226</v>
+        <v>0.1602074422448275</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>241435</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>229747</v>
+        <v>230221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>249847</v>
+        <v>250946</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8936762579328642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8504130878866981</v>
+        <v>0.8521670121444789</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9248148997806142</v>
+        <v>0.9288826140175536</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>208</v>
@@ -836,19 +836,19 @@
         <v>219430</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>205369</v>
+        <v>204908</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>229487</v>
+        <v>230425</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8511694007493659</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7966287482770202</v>
+        <v>0.7948384862806518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8901803427938013</v>
+        <v>0.8938206333864983</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>448</v>
@@ -857,19 +857,19 @@
         <v>460864</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>445797</v>
+        <v>443374</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>476649</v>
+        <v>474952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.872920468086157</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8443813629707743</v>
+        <v>0.8397925577551726</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9028176249989091</v>
+        <v>0.8996042991087437</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>119278</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>100075</v>
+        <v>102049</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139380</v>
+        <v>140756</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2460329980101389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2064226470329519</v>
+        <v>0.2104948623551149</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.287496135771652</v>
+        <v>0.2903353452672948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>169</v>
@@ -982,19 +982,19 @@
         <v>171990</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>149940</v>
+        <v>151386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>193508</v>
+        <v>192353</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3508582620441578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3058764339815512</v>
+        <v>0.3088270141916878</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3947563248554259</v>
+        <v>0.392400319432295</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>283</v>
@@ -1003,19 +1003,19 @@
         <v>291268</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>263221</v>
+        <v>262273</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320888</v>
+        <v>318787</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2987355289934351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2699700853579515</v>
+        <v>0.2689970314179677</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3291147963550108</v>
+        <v>0.3269602999230635</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>365527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>345425</v>
+        <v>344049</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>384730</v>
+        <v>382756</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7539670019898611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7125038642283481</v>
+        <v>0.7096646547327052</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7935773529670481</v>
+        <v>0.7895051376448852</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>317</v>
@@ -1053,19 +1053,19 @@
         <v>318207</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>296689</v>
+        <v>297844</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>340257</v>
+        <v>338811</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6491417379558422</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.605243675144574</v>
+        <v>0.607599680567705</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6941235660184486</v>
+        <v>0.6911729858083121</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>661</v>
@@ -1074,19 +1074,19 @@
         <v>683734</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>654114</v>
+        <v>656215</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>711781</v>
+        <v>712729</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7012644710065649</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6708852036449892</v>
+        <v>0.6730397000769366</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7300299146420485</v>
+        <v>0.7310029685820323</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>50759</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38010</v>
+        <v>39312</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65233</v>
+        <v>65989</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1620364001549874</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1213376317943235</v>
+        <v>0.1254930797871218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2082399644541798</v>
+        <v>0.2106538635729078</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1199,19 +1199,19 @@
         <v>83966</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69848</v>
+        <v>69347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>99798</v>
+        <v>99601</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2553425182702808</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2124099136006581</v>
+        <v>0.2108837631080829</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3034874361971536</v>
+        <v>0.3028875459050973</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1220,19 +1220,19 @@
         <v>134725</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114572</v>
+        <v>115399</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>155782</v>
+        <v>156487</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2098215932824051</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1784343161502406</v>
+        <v>0.1797221420723635</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.242614531351036</v>
+        <v>0.2437124030362552</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>262498</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>248024</v>
+        <v>247268</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275247</v>
+        <v>273945</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8379635998450126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7917600355458201</v>
+        <v>0.7893461364270922</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8786623682056766</v>
+        <v>0.8745069202128781</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>246</v>
@@ -1270,19 +1270,19 @@
         <v>244872</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229040</v>
+        <v>229237</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258990</v>
+        <v>259491</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7446574817297191</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6965125638028463</v>
+        <v>0.6971124540949027</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7875900863993419</v>
+        <v>0.7891162368919172</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>503</v>
@@ -1291,19 +1291,19 @@
         <v>507370</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>486313</v>
+        <v>485608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>527523</v>
+        <v>526696</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7901784067175949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7573854686489639</v>
+        <v>0.7562875969637448</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8215656838497591</v>
+        <v>0.8202778579276366</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>42984</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32186</v>
+        <v>31811</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>56937</v>
+        <v>55507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1204753772745239</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09021112028313738</v>
+        <v>0.08915971030513554</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1595850889247752</v>
+        <v>0.155576878786888</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1416,19 +1416,19 @@
         <v>85296</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69729</v>
+        <v>69868</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101016</v>
+        <v>101806</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.230578947809774</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1884961460616789</v>
+        <v>0.1888724926374069</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2730757996030021</v>
+        <v>0.2752112353317741</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>129</v>
@@ -1437,19 +1437,19 @@
         <v>128280</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>108347</v>
+        <v>109144</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>149214</v>
+        <v>149085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1765224521021171</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1490942961897392</v>
+        <v>0.1501902846919732</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2053299001892421</v>
+        <v>0.2051529864468289</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>313799</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>299846</v>
+        <v>301276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>324597</v>
+        <v>324972</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8795246227254762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8404149110752249</v>
+        <v>0.8444231212131121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9097888797168626</v>
+        <v>0.9108402896948645</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>297</v>
@@ -1487,19 +1487,19 @@
         <v>284625</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268905</v>
+        <v>268115</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>300192</v>
+        <v>300053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7694210521902261</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7269242003969978</v>
+        <v>0.7247887646682257</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8115038539383211</v>
+        <v>0.811127507362593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>614</v>
@@ -1508,19 +1508,19 @@
         <v>598424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>577490</v>
+        <v>577619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>618357</v>
+        <v>617560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.823477547897883</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.794670099810758</v>
+        <v>0.7948470135531716</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8509057038102611</v>
+        <v>0.849809715308027</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>29677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21324</v>
+        <v>21126</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41404</v>
+        <v>39954</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1485455941739853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1067340680000016</v>
+        <v>0.105746534557303</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2072464346806495</v>
+        <v>0.1999888776633089</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -1633,19 +1633,19 @@
         <v>42462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31682</v>
+        <v>32143</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>55218</v>
+        <v>56806</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2110201308294833</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1574458333272089</v>
+        <v>0.1597409310656875</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2744122439415124</v>
+        <v>0.2823039693919612</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>72</v>
@@ -1654,19 +1654,19 @@
         <v>72139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>57674</v>
+        <v>58164</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87664</v>
+        <v>88639</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1798950184282674</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1438244042878745</v>
+        <v>0.1450458173676357</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2186120513390663</v>
+        <v>0.221042527048886</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>170105</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>158378</v>
+        <v>159828</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178458</v>
+        <v>178656</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8514544058260147</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7927535653193505</v>
+        <v>0.8000111223366909</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8932659319999983</v>
+        <v>0.8942534654426969</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -1704,19 +1704,19 @@
         <v>158760</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>146004</v>
+        <v>144416</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>169540</v>
+        <v>169079</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7889798691705167</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7255877560584876</v>
+        <v>0.7176960306080389</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8425541666727911</v>
+        <v>0.8402590689343129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -1725,19 +1725,19 @@
         <v>328865</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>313340</v>
+        <v>312365</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>343330</v>
+        <v>342840</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8201049815717326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7813879486609336</v>
+        <v>0.7789574729511139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8561755957121253</v>
+        <v>0.8549541826323642</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>55048</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43232</v>
+        <v>42001</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70512</v>
+        <v>69756</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2047688463993949</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1608154975906081</v>
+        <v>0.1562367150183779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2622892634509109</v>
+        <v>0.2594777428215433</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>84</v>
@@ -1850,19 +1850,19 @@
         <v>88196</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74189</v>
+        <v>74679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104687</v>
+        <v>105277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3220241805711633</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2708798382993103</v>
+        <v>0.2726699013850526</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.382234487382916</v>
+        <v>0.3843909878393394</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>139</v>
@@ -1871,19 +1871,19 @@
         <v>143245</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>124642</v>
+        <v>123907</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>164652</v>
+        <v>163333</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2639419347116723</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.229663659674279</v>
+        <v>0.22830952629791</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3033865666243264</v>
+        <v>0.3009550716174093</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>213784</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198320</v>
+        <v>199076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225600</v>
+        <v>226831</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.795231153600605</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7377107365490887</v>
+        <v>0.7405222571784571</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8391845024093918</v>
+        <v>0.8437632849816221</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>182</v>
@@ -1921,19 +1921,19 @@
         <v>185685</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>169194</v>
+        <v>168604</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>199692</v>
+        <v>199202</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6779758194288367</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6177655126170839</v>
+        <v>0.6156090121606606</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7291201617006898</v>
+        <v>0.7273300986149475</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -1942,19 +1942,19 @@
         <v>399469</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>378062</v>
+        <v>379381</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>418072</v>
+        <v>418807</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7360580652883277</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6966134333756739</v>
+        <v>0.6990449283825907</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7703363403257211</v>
+        <v>0.7716904737020901</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>122301</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>102254</v>
+        <v>100943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145227</v>
+        <v>141484</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2023124848325907</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1691505887224209</v>
+        <v>0.1669826175222799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2402379187232587</v>
+        <v>0.2340461019762701</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>208</v>
@@ -2067,19 +2067,19 @@
         <v>216767</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>193736</v>
+        <v>191625</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>241949</v>
+        <v>238968</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3455221366973744</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3088112642525497</v>
+        <v>0.3054465572743059</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3856622842160289</v>
+        <v>0.3809094213118849</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>326</v>
@@ -2088,19 +2088,19 @@
         <v>339068</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>304517</v>
+        <v>308456</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>370306</v>
+        <v>371737</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2752452775723814</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2471977652686353</v>
+        <v>0.2503951472247175</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3006029397615304</v>
+        <v>0.3017652782435159</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>482214</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>459288</v>
+        <v>463031</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>502261</v>
+        <v>503572</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7976875151674093</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7597620812767413</v>
+        <v>0.7659538980237298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8308494112775791</v>
+        <v>0.8330173824777201</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>402</v>
@@ -2138,19 +2138,19 @@
         <v>410594</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>385412</v>
+        <v>388393</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>433625</v>
+        <v>435736</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6544778633026256</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6143377157839709</v>
+        <v>0.6190905786881151</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6911887357474503</v>
+        <v>0.6945534427256941</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>871</v>
@@ -2159,19 +2159,19 @@
         <v>892808</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>861570</v>
+        <v>860139</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>927359</v>
+        <v>923420</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7247547224276186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6993970602384695</v>
+        <v>0.6982347217564844</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7528022347313648</v>
+        <v>0.7496048527752828</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>135370</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>115855</v>
+        <v>114143</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157252</v>
+        <v>156545</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.18475653717941</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.158121344751853</v>
+        <v>0.1557848145517655</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2146207725701831</v>
+        <v>0.2136567819153545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -2284,19 +2284,19 @@
         <v>195287</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>167949</v>
+        <v>171559</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>219130</v>
+        <v>219332</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.255027484967183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2193267169696256</v>
+        <v>0.2240407784316287</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2861640952255366</v>
+        <v>0.2864278456714765</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>319</v>
@@ -2305,19 +2305,19 @@
         <v>330658</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>299624</v>
+        <v>299238</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>365291</v>
+        <v>365076</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2206670536977865</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1999565903578033</v>
+        <v>0.1996987764739292</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2437796510210327</v>
+        <v>0.2436362577408023</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>597326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>575444</v>
+        <v>576151</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>616841</v>
+        <v>618553</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.81524346282059</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7853792274298169</v>
+        <v>0.7863432180846455</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.841878655248147</v>
+        <v>0.8442151854482344</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>545</v>
@@ -2355,19 +2355,19 @@
         <v>570463</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>546620</v>
+        <v>546418</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>597801</v>
+        <v>594191</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.744972515032817</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7138359047744635</v>
+        <v>0.7135721543285235</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7806732830303745</v>
+        <v>0.7759592215683713</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1133</v>
@@ -2376,19 +2376,19 @@
         <v>1167788</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1133155</v>
+        <v>1133370</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1198822</v>
+        <v>1199208</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7793329463022135</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7562203489789673</v>
+        <v>0.7563637422591979</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8000434096421968</v>
+        <v>0.8003012235260708</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>584141</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>885</v>
@@ -2501,19 +2501,19 @@
         <v>922333</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1459</v>
@@ -2522,19 +2522,19 @@
         <v>1506475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>2646688</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2606242</v>
+        <v>2601543</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2694067</v>
+        <v>2690564</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8191976878878124</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8066790601244465</v>
+        <v>0.8052245422409599</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8338624139311396</v>
+        <v>0.8327783244414475</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2349</v>
@@ -2572,19 +2572,19 @@
         <v>2392636</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2338401</v>
+        <v>2342058</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2444903</v>
+        <v>2440336</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7217671772080547</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7054067408223731</v>
+        <v>0.7065098476489129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7375343094164073</v>
+        <v>0.7361563794833301</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4943</v>
@@ -2593,19 +2593,19 @@
         <v>5039323</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4978625</v>
+        <v>4974609</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5106093</v>
+        <v>5108869</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7698562478728578</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7605833310618303</v>
+        <v>0.7599698002337864</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7800565471501815</v>
+        <v>0.7804806387698907</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>116228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100365</v>
+        <v>98168</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>133334</v>
+        <v>133990</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3943442097482803</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3405230048196587</v>
+        <v>0.3330682791986244</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.452381110572904</v>
+        <v>0.4546068804414395</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>98</v>
@@ -2962,19 +2962,19 @@
         <v>113277</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>94483</v>
+        <v>95138</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>130995</v>
+        <v>132522</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3972540093662769</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3313439541209275</v>
+        <v>0.3336392828002258</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4593881014046378</v>
+        <v>0.4647425356925394</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>207</v>
@@ -2983,19 +2983,19 @@
         <v>229506</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>204377</v>
+        <v>203569</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254159</v>
+        <v>255971</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3957750556274767</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3524408685354052</v>
+        <v>0.3510477436009526</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4382882069696794</v>
+        <v>0.441413093411645</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>178510</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161404</v>
+        <v>160748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194373</v>
+        <v>196570</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6056557902517198</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.547618889427096</v>
+        <v>0.545393119558561</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6594769951803415</v>
+        <v>0.6669317208013759</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -3033,19 +3033,19 @@
         <v>171874</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>154156</v>
+        <v>152629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190668</v>
+        <v>190013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6027459906337231</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5406118985953622</v>
+        <v>0.5352574643074605</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6686560458790723</v>
+        <v>0.6663607171997736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>329</v>
@@ -3054,19 +3054,19 @@
         <v>350383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>325730</v>
+        <v>323918</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>375512</v>
+        <v>376320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6042249443725233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5617117930303207</v>
+        <v>0.5585869065883549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.647559131464595</v>
+        <v>0.6489522563990473</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>268621</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>247628</v>
+        <v>244077</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>293074</v>
+        <v>288945</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5356213884479643</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4937620067555275</v>
+        <v>0.4866830764132664</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5843807807708388</v>
+        <v>0.5761473647562563</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>270</v>
@@ -3179,19 +3179,19 @@
         <v>293353</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>270813</v>
+        <v>270523</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>317238</v>
+        <v>317140</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5612727489846336</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5181473437835636</v>
+        <v>0.5175931260056694</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6069735770129928</v>
+        <v>0.6067844217629359</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>525</v>
@@ -3200,19 +3200,19 @@
         <v>561974</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>525594</v>
+        <v>528164</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>594851</v>
+        <v>594815</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5487118578988343</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5131911150974535</v>
+        <v>0.515699653288437</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.580812912924436</v>
+        <v>0.580778243494993</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>232891</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>208438</v>
+        <v>212567</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253884</v>
+        <v>257435</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4643786115520357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4156192192291612</v>
+        <v>0.4238526352437438</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5062379932444731</v>
+        <v>0.5133169235867338</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>209</v>
@@ -3250,19 +3250,19 @@
         <v>229303</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205418</v>
+        <v>205516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>251843</v>
+        <v>252133</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4387272510153664</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3930264229870075</v>
+        <v>0.3932155782370648</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4818526562164365</v>
+        <v>0.4824068739943312</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>422</v>
@@ -3271,19 +3271,19 @@
         <v>462195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>429318</v>
+        <v>429354</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>498575</v>
+        <v>496005</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4512881421011658</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4191870870755639</v>
+        <v>0.419221756505007</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4868088849025465</v>
+        <v>0.484300346711563</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>51180</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>38594</v>
+        <v>39429</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>66577</v>
+        <v>66117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1584411478202281</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1194771377600109</v>
+        <v>0.1220626564201151</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2061068166692671</v>
+        <v>0.2046825238510027</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -3396,19 +3396,19 @@
         <v>48419</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35414</v>
+        <v>37178</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62480</v>
+        <v>64516</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1423950215174715</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1041478910855727</v>
+        <v>0.1093379170987281</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.183747970033061</v>
+        <v>0.189736286576362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>95</v>
@@ -3417,19 +3417,19 @@
         <v>99599</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>82071</v>
+        <v>83583</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118625</v>
+        <v>119191</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1502122934222397</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1237767540169807</v>
+        <v>0.1260580968418493</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.178907560630945</v>
+        <v>0.1797608524635313</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>271843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>256446</v>
+        <v>256906</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>284429</v>
+        <v>283594</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8415588521797719</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7938931833307329</v>
+        <v>0.7953174761489974</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8805228622399891</v>
+        <v>0.877937343579885</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>270</v>
@@ -3467,19 +3467,19 @@
         <v>291612</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277551</v>
+        <v>275515</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>304617</v>
+        <v>302853</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8576049784825285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8162520299669388</v>
+        <v>0.8102637134236383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8958521089144272</v>
+        <v>0.8906620829012721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>539</v>
@@ -3488,19 +3488,19 @@
         <v>563455</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>544429</v>
+        <v>543863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>580983</v>
+        <v>579471</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8497877065777603</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.821092439369055</v>
+        <v>0.8202391475364688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8762232459830193</v>
+        <v>0.8739419031581507</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>94949</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77048</v>
+        <v>77732</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112907</v>
+        <v>112449</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2553420678424135</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2071995970942174</v>
+        <v>0.2090414705395404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.303633104673706</v>
+        <v>0.302402942849235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -3613,19 +3613,19 @@
         <v>99047</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82808</v>
+        <v>82689</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119542</v>
+        <v>117252</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.257801344867698</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2155332377131827</v>
+        <v>0.2152240557575897</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3111449912853133</v>
+        <v>0.3051860468692995</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>180</v>
@@ -3634,19 +3634,19 @@
         <v>193997</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>167415</v>
+        <v>171656</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>220137</v>
+        <v>219345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2565917892943649</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2214329770017864</v>
+        <v>0.2270422520774307</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2911655361171221</v>
+        <v>0.2901187290309575</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>276903</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>258945</v>
+        <v>259403</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>294804</v>
+        <v>294120</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7446579321575865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6963668953262938</v>
+        <v>0.697597057150765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7928004029057826</v>
+        <v>0.7909585294604596</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>272</v>
@@ -3684,19 +3684,19 @@
         <v>285153</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>264658</v>
+        <v>266948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>301392</v>
+        <v>301511</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.742198655132302</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6888550087146866</v>
+        <v>0.6948139531307004</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7844667622868173</v>
+        <v>0.7847759442424103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>529</v>
@@ -3705,19 +3705,19 @@
         <v>562056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>535916</v>
+        <v>536708</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>588638</v>
+        <v>584397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7434082107056351</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7088344638828767</v>
+        <v>0.7098812709690424</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7785670229982135</v>
+        <v>0.7729577479225691</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>71179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58259</v>
+        <v>57467</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>85361</v>
+        <v>85531</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3378884817897161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2765552456721343</v>
+        <v>0.2727964716085981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.405208561229966</v>
+        <v>0.406016773877848</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -3830,19 +3830,19 @@
         <v>79297</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65328</v>
+        <v>65573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>94017</v>
+        <v>93989</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3611107284753487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2974966022756294</v>
+        <v>0.2986147421901167</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4281476450449119</v>
+        <v>0.4280204093935919</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>141</v>
@@ -3851,19 +3851,19 @@
         <v>150476</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130908</v>
+        <v>130687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>169338</v>
+        <v>173862</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3497406516488472</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3042609415157676</v>
+        <v>0.3037457806701434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.393580500798217</v>
+        <v>0.4040963343731239</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>139480</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>125298</v>
+        <v>125128</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152400</v>
+        <v>153192</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6621115182102839</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5947914387700339</v>
+        <v>0.5939832261221525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7234447543278657</v>
+        <v>0.727203528391402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>136</v>
@@ -3901,19 +3901,19 @@
         <v>140294</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>125574</v>
+        <v>125602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>154263</v>
+        <v>154018</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6388892715246514</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5718523549550876</v>
+        <v>0.5719795906064081</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7025033977243698</v>
+        <v>0.7013852578098833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>266</v>
@@ -3922,19 +3922,19 @@
         <v>279774</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>260912</v>
+        <v>256388</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>299342</v>
+        <v>299563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6502593483511528</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.606419499201783</v>
+        <v>0.595903665626876</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6957390584842325</v>
+        <v>0.6962542193298564</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>44978</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32905</v>
+        <v>32848</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57070</v>
+        <v>58542</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1647379256606889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.12051750263105</v>
+        <v>0.1203115029225228</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2090253133036489</v>
+        <v>0.2144197595032541</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -4047,19 +4047,19 @@
         <v>42469</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>31625</v>
+        <v>31005</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>56045</v>
+        <v>54220</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1522339536484023</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1133603114108007</v>
+        <v>0.1111406067020084</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2008960057667384</v>
+        <v>0.1943535038120991</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>84</v>
@@ -4068,19 +4068,19 @@
         <v>87447</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71604</v>
+        <v>72285</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107384</v>
+        <v>103669</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1584185749508692</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1297171752954379</v>
+        <v>0.1309497691001383</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1945352974220337</v>
+        <v>0.1878057619580007</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>228049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>215957</v>
+        <v>214485</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>240122</v>
+        <v>240179</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8352620743393111</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.790974686696351</v>
+        <v>0.7855802404967457</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8794824973689499</v>
+        <v>0.8796884970774772</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>228</v>
@@ -4118,19 +4118,19 @@
         <v>236506</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>222930</v>
+        <v>224755</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>247350</v>
+        <v>247970</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8477660463515977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7991039942332619</v>
+        <v>0.805646496187901</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8866396885891994</v>
+        <v>0.8888593932979921</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -4139,19 +4139,19 @@
         <v>464555</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>444618</v>
+        <v>448333</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>480398</v>
+        <v>479717</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8415814250491308</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8054647025779663</v>
+        <v>0.8121942380419993</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8702828247045621</v>
+        <v>0.8690502308998617</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>141382</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118807</v>
+        <v>120177</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163456</v>
+        <v>165085</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2137447159318422</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1796152393312483</v>
+        <v>0.1816869969265285</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2471168133933085</v>
+        <v>0.2495789932861069</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>151</v>
@@ -4264,19 +4264,19 @@
         <v>164260</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>141795</v>
+        <v>142320</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>190430</v>
+        <v>188988</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2367359318152078</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2043583895935218</v>
+        <v>0.2051156634847932</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2744527271793697</v>
+        <v>0.2723753443109352</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>284</v>
@@ -4285,19 +4285,19 @@
         <v>305642</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>271256</v>
+        <v>276675</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>333636</v>
+        <v>338308</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2255151370908953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2001434766669083</v>
+        <v>0.2041422358259121</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2461703486761391</v>
+        <v>0.2496172119891626</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>520071</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>497997</v>
+        <v>496368</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>542646</v>
+        <v>541276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7862552840681578</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7528831866066915</v>
+        <v>0.7504210067138932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8203847606687518</v>
+        <v>0.8183130030734714</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>485</v>
@@ -4335,19 +4335,19 @@
         <v>529593</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>503423</v>
+        <v>504865</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>552058</v>
+        <v>551533</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7632640681847922</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7255472728206303</v>
+        <v>0.7276246556890649</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7956416104064783</v>
+        <v>0.7948843365152068</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>969</v>
@@ -4356,19 +4356,19 @@
         <v>1049664</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1021670</v>
+        <v>1016998</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1084050</v>
+        <v>1078631</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7744848629091047</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7538296513238608</v>
+        <v>0.7503827880108364</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7998565233330917</v>
+        <v>0.7958577641740874</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>255417</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229343</v>
+        <v>229060</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>282412</v>
+        <v>282927</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3304739880433319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.29673781301545</v>
+        <v>0.2963713856230815</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3654016403356688</v>
+        <v>0.3660684472254523</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>255</v>
@@ -4481,19 +4481,19 @@
         <v>279806</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>253398</v>
+        <v>252463</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>308189</v>
+        <v>306930</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3419505461456968</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3096770995576683</v>
+        <v>0.308534692466165</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.376637689533931</v>
+        <v>0.3750985777586346</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>493</v>
@@ -4502,19 +4502,19 @@
         <v>535223</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>497023</v>
+        <v>495098</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>576009</v>
+        <v>575311</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3363759413469875</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3123678509874734</v>
+        <v>0.3111585386860298</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3620092709194577</v>
+        <v>0.361570663104074</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>517463</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>490468</v>
+        <v>489953</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>543537</v>
+        <v>543820</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6695260119566682</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6345983596643311</v>
+        <v>0.6339315527745476</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7032621869845498</v>
+        <v>0.7036286143769185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>497</v>
@@ -4552,19 +4552,19 @@
         <v>538459</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>510076</v>
+        <v>511335</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>564867</v>
+        <v>565802</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6580494538543032</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6233623104660689</v>
+        <v>0.6249014222413655</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6903229004423317</v>
+        <v>0.6914653075338349</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>970</v>
@@ -4573,19 +4573,19 @@
         <v>1055922</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1015136</v>
+        <v>1015834</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1094122</v>
+        <v>1096047</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6636240586530125</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6379907290805418</v>
+        <v>0.638429336895926</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6876321490125259</v>
+        <v>0.6888414613139703</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1043935</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1031</v>
@@ -4698,19 +4698,19 @@
         <v>1119928</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2009</v>
@@ -4719,19 +4719,19 @@
         <v>2163863</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2365210</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2311375</v>
+        <v>2310679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2418288</v>
+        <v>2419162</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6937840371905943</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6779924808268863</v>
+        <v>0.677788450774962</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7093532017605515</v>
+        <v>0.7096094521965074</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2253</v>
@@ -4769,19 +4769,19 @@
         <v>2422794</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2369358</v>
+        <v>2367707</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2483248</v>
+        <v>2479547</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6838791436990042</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6687958498042824</v>
+        <v>0.6683297754658422</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7009435360808974</v>
+        <v>0.6998987586801307</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4468</v>
@@ -4790,19 +4790,19 @@
         <v>4788004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4709731</v>
+        <v>4699464</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4869651</v>
+        <v>4864556</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6887364317332028</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6774771139014897</v>
+        <v>0.6760002985250342</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.700481019004374</v>
+        <v>0.6997481909569047</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>108682</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92946</v>
+        <v>88944</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128193</v>
+        <v>126741</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3709808804564798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3172647025954818</v>
+        <v>0.3036063581809418</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4375806715952882</v>
+        <v>0.4326246152845768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>87</v>
@@ -5159,19 +5159,19 @@
         <v>89961</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>74609</v>
+        <v>74301</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>107697</v>
+        <v>104266</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3137706032121418</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.260225234294021</v>
+        <v>0.2591505955787901</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3756297027039565</v>
+        <v>0.3636638139730516</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>185</v>
@@ -5180,19 +5180,19 @@
         <v>198644</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175242</v>
+        <v>174050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223701</v>
+        <v>220178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3426841170095409</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.302312640814282</v>
+        <v>0.3002570467365611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3859117462147374</v>
+        <v>0.3798327093981431</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>184277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>164766</v>
+        <v>166218</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>200013</v>
+        <v>204015</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6290191195435202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5624193284047119</v>
+        <v>0.5673753847154231</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6827352974045182</v>
+        <v>0.6963936418190581</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>188</v>
@@ -5230,19 +5230,19 @@
         <v>196749</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>179013</v>
+        <v>182444</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>212101</v>
+        <v>212409</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6862293967878582</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6243702972960439</v>
+        <v>0.6363361860269489</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.739774765705979</v>
+        <v>0.7408494044212099</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>355</v>
@@ -5251,19 +5251,19 @@
         <v>381026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>355969</v>
+        <v>359492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>404428</v>
+        <v>405620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6573158829904591</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6140882537852624</v>
+        <v>0.6201672906018566</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6976873591857178</v>
+        <v>0.6997429532634389</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>200673</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179819</v>
+        <v>176872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222558</v>
+        <v>221656</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4029495744315754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3610746978622345</v>
+        <v>0.3551566864471931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4468941269919672</v>
+        <v>0.4450820992874914</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -5376,19 +5376,19 @@
         <v>218366</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197687</v>
+        <v>195353</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242344</v>
+        <v>239639</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4189699400328959</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3792932576418439</v>
+        <v>0.3748152124398182</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4649767389248801</v>
+        <v>0.4597858954448148</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>387</v>
@@ -5397,19 +5397,19 @@
         <v>419039</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>386963</v>
+        <v>388954</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>453334</v>
+        <v>450660</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4111419764725601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3796707513991204</v>
+        <v>0.3816232897619827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4447906685518289</v>
+        <v>0.4421671043730545</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>297338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>275453</v>
+        <v>276355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>318192</v>
+        <v>321139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5970504255684247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5531058730080329</v>
+        <v>0.5549179007125086</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6389253021377657</v>
+        <v>0.6448433135528071</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -5447,19 +5447,19 @@
         <v>302831</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>278853</v>
+        <v>281558</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>323510</v>
+        <v>325844</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5810300599671041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5350232610751199</v>
+        <v>0.540214104555185</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.620706742358156</v>
+        <v>0.6251847875601817</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>566</v>
@@ -5468,19 +5468,19 @@
         <v>600169</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>565874</v>
+        <v>568548</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>632245</v>
+        <v>630254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.58885802352744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.555209331448171</v>
+        <v>0.5578328956269456</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6203292486008795</v>
+        <v>0.6183767102380173</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>75977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>61285</v>
+        <v>63187</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91993</v>
+        <v>92439</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2429015147765343</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1959280962476365</v>
+        <v>0.2020088904174815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.294103718506492</v>
+        <v>0.2955299153112816</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -5593,19 +5593,19 @@
         <v>109069</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>92063</v>
+        <v>92963</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125953</v>
+        <v>127688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3266894874639046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2757520653857114</v>
+        <v>0.2784491354885787</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3772628296232432</v>
+        <v>0.3824598457478691</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>186</v>
@@ -5614,19 +5614,19 @@
         <v>185046</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>163709</v>
+        <v>160650</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>209033</v>
+        <v>208106</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2861605496582709</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2531636745707871</v>
+        <v>0.2484338297458884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3232535932035958</v>
+        <v>0.3218204022346309</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>236814</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>220798</v>
+        <v>220352</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>251506</v>
+        <v>249604</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7570984852234657</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.705896281493508</v>
+        <v>0.704470084688718</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8040719037523636</v>
+        <v>0.7979911095825184</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -5664,19 +5664,19 @@
         <v>224792</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>207908</v>
+        <v>206173</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>241798</v>
+        <v>240898</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6733105125360953</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6227371703767566</v>
+        <v>0.6175401542521308</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7242479346142884</v>
+        <v>0.721550864511421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>474</v>
@@ -5685,19 +5685,19 @@
         <v>461606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>437619</v>
+        <v>438546</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>482943</v>
+        <v>486002</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7138394503417291</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6767464067964042</v>
+        <v>0.6781795977653693</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7468363254292129</v>
+        <v>0.7515661702541117</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>111927</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94819</v>
+        <v>95168</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130722</v>
+        <v>130222</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3033860740483088</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2570137941764584</v>
+        <v>0.2579581721886055</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.354330025229582</v>
+        <v>0.352974537073362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -5810,19 +5810,19 @@
         <v>149727</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>130076</v>
+        <v>129054</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170706</v>
+        <v>169425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3875340199563945</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3366719925822158</v>
+        <v>0.3340251980017673</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4418324198779436</v>
+        <v>0.4385159069523548</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>246</v>
@@ -5831,19 +5831,19 @@
         <v>261655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233937</v>
+        <v>234305</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290486</v>
+        <v>288109</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3464310969680566</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3097328291038907</v>
+        <v>0.3102196750669913</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3846038179102086</v>
+        <v>0.3814564976343895</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>257000</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>238205</v>
+        <v>238705</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>274108</v>
+        <v>273759</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6966139259516911</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6456699747704182</v>
+        <v>0.6470254629266381</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7429862058235417</v>
+        <v>0.7420418278113945</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>217</v>
@@ -5881,19 +5881,19 @@
         <v>236632</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>215653</v>
+        <v>216934</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>256283</v>
+        <v>257305</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6124659800436055</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5581675801220571</v>
+        <v>0.5614840930476451</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6633280074177849</v>
+        <v>0.6659748019982328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>464</v>
@@ -5902,19 +5902,19 @@
         <v>493631</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>464800</v>
+        <v>467177</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>521349</v>
+        <v>520981</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6535689030319434</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6153961820897913</v>
+        <v>0.6185435023656104</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6902671708961091</v>
+        <v>0.6897803249330087</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>128077</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>113683</v>
+        <v>113828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142548</v>
+        <v>142436</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6120649011157262</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5432788080157926</v>
+        <v>0.5439682994086751</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6812182850369992</v>
+        <v>0.6806831588465572</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>147</v>
@@ -6027,19 +6027,19 @@
         <v>144377</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>129903</v>
+        <v>129776</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>157248</v>
+        <v>156974</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6639355859223718</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5973738792568125</v>
+        <v>0.5967913809318141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7231275666533121</v>
+        <v>0.7218637184928952</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>276</v>
@@ -6048,19 +6048,19 @@
         <v>272454</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>251685</v>
+        <v>253556</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291790</v>
+        <v>292483</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6384987476025139</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5898263523247402</v>
+        <v>0.5942115563256121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6838127096294032</v>
+        <v>0.6854363998817716</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>81177</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>66706</v>
+        <v>66818</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>95571</v>
+        <v>95426</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3879350988842738</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3187817149630009</v>
+        <v>0.3193168411534428</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4567211919842078</v>
+        <v>0.4560317005913248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>75</v>
@@ -6098,19 +6098,19 @@
         <v>73079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60208</v>
+        <v>60482</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87553</v>
+        <v>87680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3360644140776283</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2768724333466882</v>
+        <v>0.2781362815071047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4026261207431876</v>
+        <v>0.4032086190681859</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>156</v>
@@ -6119,19 +6119,19 @@
         <v>154256</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>134920</v>
+        <v>134227</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>175025</v>
+        <v>173154</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.361501252397486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3161872903705967</v>
+        <v>0.3145636001182287</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4101736476752597</v>
+        <v>0.405788443674388</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>48026</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>37266</v>
+        <v>35369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>62951</v>
+        <v>62864</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1846132008375739</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1432523080760096</v>
+        <v>0.1359586885794916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2419858827810332</v>
+        <v>0.2416535775903065</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>47</v>
@@ -6244,19 +6244,19 @@
         <v>50246</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38732</v>
+        <v>39159</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66264</v>
+        <v>64965</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1839737916408513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1418150360022113</v>
+        <v>0.1433787981079629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2426245073141357</v>
+        <v>0.2378653732343634</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>92</v>
@@ -6265,19 +6265,19 @@
         <v>98272</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79183</v>
+        <v>82011</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>116092</v>
+        <v>120011</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1842857194083185</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1484884058144305</v>
+        <v>0.1537928579564083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2177036271942069</v>
+        <v>0.2250528033184177</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>212117</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>197192</v>
+        <v>197279</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222877</v>
+        <v>224774</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8153867991624261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7580141172189667</v>
+        <v>0.7583464224096933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8567476919239904</v>
+        <v>0.864041311420508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>216</v>
@@ -6315,19 +6315,19 @@
         <v>222869</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>206851</v>
+        <v>208150</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>234383</v>
+        <v>233956</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8160262083591486</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7573754926858647</v>
+        <v>0.7621346267656366</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8581849639977888</v>
+        <v>0.8566212018920372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>427</v>
@@ -6336,19 +6336,19 @@
         <v>434986</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>417166</v>
+        <v>413247</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>454075</v>
+        <v>451247</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8157142805916815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7822963728057931</v>
+        <v>0.7749471966815823</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8515115941855694</v>
+        <v>0.8462071420435916</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>200058</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>176346</v>
+        <v>175180</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>226512</v>
+        <v>225069</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3052115183761202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2690364878243945</v>
+        <v>0.2672572771559092</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3455706624005433</v>
+        <v>0.3433693458017767</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>216</v>
@@ -6461,19 +6461,19 @@
         <v>229653</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>202919</v>
+        <v>205400</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>254948</v>
+        <v>253990</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3326732248260498</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2939468179883934</v>
+        <v>0.297540630622763</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3693152084973506</v>
+        <v>0.3679279760095011</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>389</v>
@@ -6482,19 +6482,19 @@
         <v>429711</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>393451</v>
+        <v>393266</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>469375</v>
+        <v>465090</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3192979671822942</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2923549025853441</v>
+        <v>0.2922175327152047</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3487704328448418</v>
+        <v>0.3455866691450749</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>455414</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>428960</v>
+        <v>430403</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>479126</v>
+        <v>480292</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6947884816238797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6544293375994568</v>
+        <v>0.6566306541982232</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7309635121756055</v>
+        <v>0.7327427228440908</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>429</v>
@@ -6532,19 +6532,19 @@
         <v>460672</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>435377</v>
+        <v>436335</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>487406</v>
+        <v>484925</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6673267751739502</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6306847915026494</v>
+        <v>0.6320720239904988</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7060531820116066</v>
+        <v>0.7024593693772369</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>835</v>
@@ -6553,19 +6553,19 @@
         <v>916087</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>876423</v>
+        <v>880708</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>952347</v>
+        <v>952532</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6807020328177058</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6512295671551586</v>
+        <v>0.6544133308549251</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7076450974146565</v>
+        <v>0.7077824672847953</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>254576</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229588</v>
+        <v>227658</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>280802</v>
+        <v>283541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3307368172379609</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2982734435730202</v>
+        <v>0.2957657897632479</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.364809492826545</v>
+        <v>0.3683673571792447</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>246</v>
@@ -6678,19 +6678,19 @@
         <v>268162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239298</v>
+        <v>244455</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>297414</v>
+        <v>296373</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3279190717565576</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2926229781293612</v>
+        <v>0.2989292896451338</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3636896766818077</v>
+        <v>0.3624168730526979</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>493</v>
@@ -6699,19 +6699,19 @@
         <v>522738</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>483224</v>
+        <v>483613</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>558767</v>
+        <v>560922</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3292853047096732</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3043944803709751</v>
+        <v>0.3046394516829394</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3519807013066868</v>
+        <v>0.3533380576511678</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>515147</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>488921</v>
+        <v>486182</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>540135</v>
+        <v>542065</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6692631827620391</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6351905071734548</v>
+        <v>0.6316326428207553</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7017265564269798</v>
+        <v>0.7042342102367521</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>502</v>
@@ -6749,19 +6749,19 @@
         <v>549607</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>520355</v>
+        <v>521396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>578471</v>
+        <v>573314</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6720809282434425</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6363103233181923</v>
+        <v>0.637583126947302</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7073770218706388</v>
+        <v>0.7010707103548662</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>996</v>
@@ -6770,19 +6770,19 @@
         <v>1064755</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1028726</v>
+        <v>1026571</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1104269</v>
+        <v>1103880</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6707146952903269</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6480192986933132</v>
+        <v>0.6466619423488323</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6956055196290248</v>
+        <v>0.6953605483170606</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1127997</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1188</v>
@@ -6895,19 +6895,19 @@
         <v>1259561</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2254</v>
@@ -6916,19 +6916,19 @@
         <v>2387558</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2239285</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2182113</v>
+        <v>2182669</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2294192</v>
+        <v>2292114</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6650125781204531</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6480339929951434</v>
+        <v>0.6481990022759904</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6813185412345717</v>
+        <v>0.6807015128464101</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2134</v>
@@ -6966,19 +6966,19 @@
         <v>2267231</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2209739</v>
+        <v>2203918</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2322998</v>
+        <v>2318404</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6428594005058832</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6265578906458625</v>
+        <v>0.6249071511002322</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6586715871101291</v>
+        <v>0.6573690277422115</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4273</v>
@@ -6987,19 +6987,19 @@
         <v>4506517</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4423746</v>
+        <v>4420711</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4589685</v>
+        <v>4589155</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6536797072241977</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6416735932281185</v>
+        <v>0.6412333896350264</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6657434647705852</v>
+        <v>0.6656664832605401</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>23766</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15886</v>
+        <v>15160</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33386</v>
+        <v>32905</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.07481637849757623</v>
+        <v>0.07481637849757626</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05000937039322731</v>
+        <v>0.04772548178622032</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1051039174169667</v>
+        <v>0.1035884649904294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -7356,19 +7356,19 @@
         <v>30255</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21266</v>
+        <v>20481</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43255</v>
+        <v>41605</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09572631261348162</v>
+        <v>0.09572631261348163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0672830101042047</v>
+        <v>0.06480054075699195</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1368580426850363</v>
+        <v>0.1316374448754003</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -7377,19 +7377,19 @@
         <v>54021</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42220</v>
+        <v>41308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69696</v>
+        <v>70574</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08524508887683607</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0666228193556152</v>
+        <v>0.06518349257692493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1099798165821559</v>
+        <v>0.1113665813381049</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>293886</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>284266</v>
+        <v>284747</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301766</v>
+        <v>302492</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9251836215024236</v>
+        <v>0.9251836215024239</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8948960825830334</v>
+        <v>0.8964115350095705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9499906296067728</v>
+        <v>0.9522745182137796</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>493</v>
@@ -7427,19 +7427,19 @@
         <v>285806</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272806</v>
+        <v>274456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>294795</v>
+        <v>295580</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9042736873865184</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8631419573149636</v>
+        <v>0.8683625551246005</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9327169898957952</v>
+        <v>0.935199459243008</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>797</v>
@@ -7448,19 +7448,19 @@
         <v>579692</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564017</v>
+        <v>563139</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>591493</v>
+        <v>592405</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.914754911123164</v>
+        <v>0.9147549111231639</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8900201834178442</v>
+        <v>0.8886334186618949</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9333771806443849</v>
+        <v>0.934816507423075</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>67250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>48480</v>
+        <v>49880</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88562</v>
+        <v>87641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1284610220778289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09260613474439637</v>
+        <v>0.09528015918348791</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1691713748473304</v>
+        <v>0.1674124683246574</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>103</v>
@@ -7573,19 +7573,19 @@
         <v>76139</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>62215</v>
+        <v>61948</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89547</v>
+        <v>91137</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1397912332321033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1142276244387781</v>
+        <v>0.1137374403289184</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1644095167947632</v>
+        <v>0.1673280658052</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -7594,19 +7594,19 @@
         <v>143389</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120460</v>
+        <v>121633</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>168068</v>
+        <v>169001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.134238332307607</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1127728797573091</v>
+        <v>0.1138712727947687</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1573424555849791</v>
+        <v>0.1582160063512723</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>456255</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>434943</v>
+        <v>435864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475025</v>
+        <v>473625</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8715389779221713</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8308286251526698</v>
+        <v>0.8325875316753426</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9073938652556038</v>
+        <v>0.9047198408165119</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>611</v>
@@ -7644,19 +7644,19 @@
         <v>468522</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>455114</v>
+        <v>453524</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>482446</v>
+        <v>482713</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8602087667678966</v>
+        <v>0.8602087667678967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8355904832052369</v>
+        <v>0.8326719341948001</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8857723755612219</v>
+        <v>0.8862625596710815</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -7665,19 +7665,19 @@
         <v>924777</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>900098</v>
+        <v>899165</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>947706</v>
+        <v>946533</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.865761667692393</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8426575444150211</v>
+        <v>0.8417839936487279</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8872271202426911</v>
+        <v>0.8861287272052313</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>50937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39749</v>
+        <v>39355</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65619</v>
+        <v>66266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1629590112425693</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1271658148400741</v>
+        <v>0.1259062622080538</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2099278496406249</v>
+        <v>0.2120003051528667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -7790,19 +7790,19 @@
         <v>71784</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58796</v>
+        <v>59271</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>86401</v>
+        <v>84956</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2043918380996173</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1674107646556643</v>
+        <v>0.1687639058189606</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2460129217028016</v>
+        <v>0.2418971766845697</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>161</v>
@@ -7811,19 +7811,19 @@
         <v>122721</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>103891</v>
+        <v>104813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140365</v>
+        <v>140968</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1848810712002297</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1565135911933586</v>
+        <v>0.1579022160055123</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2114617683355108</v>
+        <v>0.2123704446453457</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>261640</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>246958</v>
+        <v>246311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>272828</v>
+        <v>273222</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8370409887574307</v>
+        <v>0.8370409887574308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7900721503593749</v>
+        <v>0.7879996948471333</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8728341851599256</v>
+        <v>0.8740937377919463</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>422</v>
@@ -7861,19 +7861,19 @@
         <v>279423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>264806</v>
+        <v>266251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>292411</v>
+        <v>291936</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7956081619003826</v>
+        <v>0.7956081619003829</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7539870782971975</v>
+        <v>0.7581028233154304</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8325892353443354</v>
+        <v>0.8312360941810392</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>724</v>
@@ -7882,19 +7882,19 @@
         <v>541063</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>523419</v>
+        <v>522816</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>559893</v>
+        <v>558971</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8151189287997704</v>
+        <v>0.8151189287997701</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7885382316644891</v>
+        <v>0.7876295553546541</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8434864088066413</v>
+        <v>0.8420977839944876</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>48324</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32942</v>
+        <v>33494</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67732</v>
+        <v>69619</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1372580290963315</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09356701290095785</v>
+        <v>0.09513342862304117</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1923837397147512</v>
+        <v>0.1977432234005904</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -8007,19 +8007,19 @@
         <v>83553</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>67772</v>
+        <v>68784</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>100939</v>
+        <v>103102</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2046226551674977</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1659753255839064</v>
+        <v>0.1684544603345705</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2472031727988316</v>
+        <v>0.2525006066003392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>142</v>
@@ -8028,19 +8028,19 @@
         <v>131877</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>109146</v>
+        <v>109792</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>158661</v>
+        <v>161873</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1734322672615144</v>
+        <v>0.1734322672615145</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1435381830192845</v>
+        <v>0.1443882824480756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2086558409362401</v>
+        <v>0.2128799894679751</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>303745</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>284337</v>
+        <v>282450</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>319127</v>
+        <v>318575</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8627419709036684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8076162602852484</v>
+        <v>0.8022567765994094</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9064329870990419</v>
+        <v>0.9048665713769588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>465</v>
@@ -8078,19 +8078,19 @@
         <v>324772</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>307386</v>
+        <v>305223</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340553</v>
+        <v>339541</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7953773448325022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7527968272011683</v>
+        <v>0.7474993933996604</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8340246744160937</v>
+        <v>0.8315455396654287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>712</v>
@@ -8099,19 +8099,19 @@
         <v>628517</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>601733</v>
+        <v>598521</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>651248</v>
+        <v>650602</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8265677327384854</v>
+        <v>0.8265677327384855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7913441590637599</v>
+        <v>0.7871200105320248</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8564618169807156</v>
+        <v>0.8556117175519246</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>15238</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8807</v>
+        <v>9549</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24310</v>
+        <v>23320</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07429796530079831</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0429400233662705</v>
+        <v>0.04656021414903733</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1185313490555974</v>
+        <v>0.1137059798526097</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -8224,19 +8224,19 @@
         <v>16325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11229</v>
+        <v>11632</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24405</v>
+        <v>24216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07216621801683412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04963983081799543</v>
+        <v>0.05142188508051373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1078835748182239</v>
+        <v>0.1070508001370063</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -8245,19 +8245,19 @@
         <v>31563</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>23642</v>
+        <v>23160</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42538</v>
+        <v>42400</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.0731798981482826</v>
+        <v>0.07317989814828262</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0548146414564164</v>
+        <v>0.05369713978368854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09862544880143342</v>
+        <v>0.09830540137095641</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>189856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>180784</v>
+        <v>181774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196287</v>
+        <v>195545</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9257020346992016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8814686509444026</v>
+        <v>0.8862940201473903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9570599766337297</v>
+        <v>0.9534397858509627</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>459</v>
@@ -8295,19 +8295,19 @@
         <v>209890</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201810</v>
+        <v>201999</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214986</v>
+        <v>214583</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9278337819831658</v>
+        <v>0.9278337819831657</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8921164251817758</v>
+        <v>0.8929491998629934</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9503601691820044</v>
+        <v>0.9485781149194862</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>718</v>
@@ -8316,19 +8316,19 @@
         <v>399746</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>388771</v>
+        <v>388909</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>407667</v>
+        <v>408149</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9268201018517174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9013745511985668</v>
+        <v>0.9016945986290437</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9451853585435835</v>
+        <v>0.9463028602163115</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>36688</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>27626</v>
+        <v>27086</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48382</v>
+        <v>48137</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1355259613289257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1020523397906329</v>
+        <v>0.1000553528657416</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1787240845873605</v>
+        <v>0.1778197012414997</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>74</v>
@@ -8441,19 +8441,19 @@
         <v>42258</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33522</v>
+        <v>33222</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>52071</v>
+        <v>53344</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.160514340617926</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1273313046837299</v>
+        <v>0.1261886208585365</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1977863486028195</v>
+        <v>0.2026215727063828</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>118</v>
@@ -8462,19 +8462,19 @@
         <v>78946</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66008</v>
+        <v>64446</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>93397</v>
+        <v>94253</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1478461091158409</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1236157763542275</v>
+        <v>0.1206917184111019</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1749087705383156</v>
+        <v>0.1765107498458339</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>234019</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>222325</v>
+        <v>222570</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>243081</v>
+        <v>243621</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8644740386710743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8212759154126398</v>
+        <v>0.8221802987585006</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8979476602093671</v>
+        <v>0.8999446471342585</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>385</v>
@@ -8512,19 +8512,19 @@
         <v>221011</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>211198</v>
+        <v>209925</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>229747</v>
+        <v>230047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8394856593820741</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8022136513971806</v>
+        <v>0.7973784272936174</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8726686953162701</v>
+        <v>0.8738113791414636</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>712</v>
@@ -8533,19 +8533,19 @@
         <v>455030</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>440579</v>
+        <v>439723</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>467968</v>
+        <v>469530</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.852153890884159</v>
+        <v>0.8521538908841593</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8250912294616842</v>
+        <v>0.8234892501541664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8763842236457724</v>
+        <v>0.8793082815888981</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>85240</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66689</v>
+        <v>65866</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106163</v>
+        <v>105775</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1209562220786259</v>
+        <v>0.1209562220786258</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09463263896199203</v>
+        <v>0.09346483872976957</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1506459310041445</v>
+        <v>0.1500951755024121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>145</v>
@@ -8658,19 +8658,19 @@
         <v>111544</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>95368</v>
+        <v>94952</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129730</v>
+        <v>131636</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1466784637251243</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1254065477004099</v>
+        <v>0.1248605672757442</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1705926885697188</v>
+        <v>0.1730983076524856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>220</v>
@@ -8679,19 +8679,19 @@
         <v>196784</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>171524</v>
+        <v>170690</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>223386</v>
+        <v>225686</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1343067093405235</v>
+        <v>0.1343067093405236</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1170663102796634</v>
+        <v>0.1164972958308828</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1524622887175266</v>
+        <v>0.1540326112327002</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>619478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>598555</v>
+        <v>598943</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>638029</v>
+        <v>638852</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8790437779213742</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8493540689958555</v>
+        <v>0.8499048244975881</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.905367361038008</v>
+        <v>0.9065351612702313</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>802</v>
@@ -8729,19 +8729,19 @@
         <v>648924</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>630738</v>
+        <v>628832</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>665100</v>
+        <v>665516</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8533215362748756</v>
+        <v>0.8533215362748755</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8294073114302808</v>
+        <v>0.8269016923475142</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8745934522995901</v>
+        <v>0.8751394327242558</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1315</v>
@@ -8750,19 +8750,19 @@
         <v>1268402</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1241800</v>
+        <v>1239500</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1293662</v>
+        <v>1294496</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8656932906594764</v>
+        <v>0.8656932906594765</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8475377112824736</v>
+        <v>0.8459673887673</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8829336897203371</v>
+        <v>0.8835027041691171</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>171296</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>147408</v>
+        <v>146677</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>196556</v>
+        <v>196566</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2154773191010358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1854269044438276</v>
+        <v>0.1845078691992759</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2472516586254852</v>
+        <v>0.2472640007947257</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>247</v>
@@ -8875,19 +8875,19 @@
         <v>191722</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>169862</v>
+        <v>170262</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>213804</v>
+        <v>213323</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2317692211380114</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2053431715114995</v>
+        <v>0.2058268483615565</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2584638572454698</v>
+        <v>0.2578819997194864</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>404</v>
@@ -8896,19 +8896,19 @@
         <v>363018</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>330589</v>
+        <v>332341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>400969</v>
+        <v>398453</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2237852041724259</v>
+        <v>0.2237852041724258</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2037941171353574</v>
+        <v>0.2048740517411979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.247180151876739</v>
+        <v>0.2456291842884365</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>623667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>598407</v>
+        <v>598397</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>647555</v>
+        <v>648286</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7845226808989642</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7527483413745139</v>
+        <v>0.7527359992052741</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8145730955561725</v>
+        <v>0.8154921308007239</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>810</v>
@@ -8946,19 +8946,19 @@
         <v>635488</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>613406</v>
+        <v>613887</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>657348</v>
+        <v>656948</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.7682307788619887</v>
+        <v>0.7682307788619888</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7415361427545303</v>
+        <v>0.7421180002805136</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7946568284885004</v>
+        <v>0.7941731516384436</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1412</v>
@@ -8967,19 +8967,19 @@
         <v>1259155</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1221204</v>
+        <v>1223720</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1291584</v>
+        <v>1289832</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7762147958275742</v>
+        <v>0.7762147958275741</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.752819848123261</v>
+        <v>0.7543708157115636</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7962058828646427</v>
+        <v>0.795125948258802</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>498739</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>861</v>
@@ -9092,19 +9092,19 @@
         <v>623580</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1316</v>
@@ -9113,19 +9113,19 @@
         <v>1122320</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2982545</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2937947</v>
+        <v>2933807</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3026708</v>
+        <v>3027880</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.856736971561179</v>
+        <v>0.8567369715611789</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8439261348134823</v>
+        <v>0.8427370341344824</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8694228247387341</v>
+        <v>0.8697596513249097</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4447</v>
@@ -9163,19 +9163,19 @@
         <v>3073836</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3029132</v>
+        <v>3030655</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3112473</v>
+        <v>3114778</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8313470123840428</v>
+        <v>0.8313470123840431</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8192564818976716</v>
+        <v>0.8196683132925536</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8417968038071498</v>
+        <v>0.8424200885116283</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7333</v>
@@ -9184,19 +9184,19 @@
         <v>6056381</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5991937</v>
+        <v>5986559</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6118535</v>
+        <v>6113015</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8436597796407665</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8346826932496804</v>
+        <v>0.8339334394046621</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.852317891922396</v>
+        <v>0.8515488500690359</v>
       </c>
     </row>
     <row r="30">
